--- a/NetAP/OpenXmlTemplateFiles/Template.xlsx
+++ b/NetAP/OpenXmlTemplateFiles/Template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="24495" windowHeight="11955"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="21840" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,17 +16,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>Column01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Column06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -54,15 +86,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -136,6 +173,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -170,6 +208,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -345,37 +384,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>14</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>23</v>
+      </c>
+      <c r="D3">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>33</v>
+      </c>
+      <c r="D4">
+        <v>34</v>
+      </c>
+      <c r="E4">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="119" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NetAP/OpenXmlTemplateFiles/Template.xlsx
+++ b/NetAP/OpenXmlTemplateFiles/Template.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="345" windowWidth="21840" windowHeight="11955"/>
+    <workbookView xWindow="480" yWindow="345" windowWidth="24495" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,49 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Column01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Column06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -86,20 +54,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -173,7 +136,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -208,7 +170,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -384,124 +345,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>14</v>
-      </c>
-      <c r="E2">
-        <v>15</v>
-      </c>
-      <c r="F2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>21</v>
-      </c>
-      <c r="B3">
-        <v>22</v>
-      </c>
-      <c r="C3">
-        <v>23</v>
-      </c>
-      <c r="D3">
-        <v>24</v>
-      </c>
-      <c r="E3">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>31</v>
-      </c>
-      <c r="B4">
-        <v>32</v>
-      </c>
-      <c r="C4">
-        <v>33</v>
-      </c>
-      <c r="D4">
-        <v>34</v>
-      </c>
-      <c r="E4">
-        <v>35</v>
-      </c>
-      <c r="F4">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="119" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>